--- a/IBE_MatlabCode/results.xlsx
+++ b/IBE_MatlabCode/results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\DropboxZecao\Dropbox\0doutorado\GitHub\IterativeBranchExchange\IBE_MatlabCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD909935-10A1-4DBC-AF98-0F131617A1EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17051BA3-D97D-4711-9433-7460DEBDF9AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sist33" sheetId="13" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="14">
   <si>
     <t>t(s)</t>
   </si>
@@ -46,17 +46,11 @@
 Generations</t>
   </si>
   <si>
-    <t>nº PF (LS)</t>
-  </si>
-  <si>
     <t xml:space="preserve">                Runs
 Generations</t>
   </si>
   <si>
     <t>Average</t>
-  </si>
-  <si>
-    <t>nº FP (LS)</t>
   </si>
   <si>
     <t>nº FP (EA)</t>
@@ -66,13 +60,7 @@
 Generations</t>
   </si>
   <si>
-    <t>nº selections(EA)</t>
-  </si>
-  <si>
     <t>nº PF (EA)</t>
-  </si>
-  <si>
-    <t>BE and DE</t>
   </si>
   <si>
     <t>BE only (largest cycles 1st)</t>
@@ -82,6 +70,15 @@
   </si>
   <si>
     <t>BE only (random cycle order)</t>
+  </si>
+  <si>
+    <t>no.PF(EA)</t>
+  </si>
+  <si>
+    <t>no.PF(LocalSearch)</t>
+  </si>
+  <si>
+    <t>BE</t>
   </si>
 </sst>
 </file>
@@ -1095,7 +1092,7 @@
   <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1106,12 +1103,12 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="27" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B2" s="10">
         <v>1</v>
@@ -1354,12 +1351,12 @@
         <v>0</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B9" s="12">
         <v>1</v>
@@ -1437,7 +1434,7 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="B11" s="12">
         <v>23</v>
@@ -1491,7 +1488,7 @@
         <v>24</v>
       </c>
       <c r="M12" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1505,12 +1502,12 @@
   <dimension ref="A1:O13"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.42578125" customWidth="1"/>
+    <col min="1" max="1" width="20.28515625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="34" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="25.28515625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="8.140625" bestFit="1" customWidth="1"/>
@@ -1518,7 +1515,7 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="27" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="30" x14ac:dyDescent="0.25">
@@ -1768,12 +1765,12 @@
         <v>0</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B9" s="12">
         <v>1</v>
@@ -1851,7 +1848,7 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="B11" s="12">
         <v>25</v>
@@ -1905,7 +1902,7 @@
         <v>26</v>
       </c>
       <c r="M12" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
@@ -1932,9 +1929,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M12"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:K7"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1945,12 +1940,12 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="27" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B2" s="10">
         <v>1</v>
@@ -2195,12 +2190,12 @@
         <v>0</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B9" s="17">
         <v>1</v>
@@ -2278,7 +2273,7 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="B11" s="17">
         <v>51</v>
@@ -2331,7 +2326,7 @@
         <v>64.599999999999994</v>
       </c>
       <c r="M12" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -2341,15 +2336,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:M28"/>
+  <dimension ref="A1:M27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:XFD14"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" customWidth="1"/>
+    <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.5703125" customWidth="1"/>
     <col min="3" max="11" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="10.28515625" bestFit="1" customWidth="1"/>
@@ -2358,12 +2351,12 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="27" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B2" s="10">
         <v>0.32036443999999997</v>
@@ -3135,7 +3128,7 @@
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B24" s="17">
         <v>6</v>
@@ -3213,7 +3206,7 @@
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B26" s="17">
         <v>186</v>
@@ -3251,51 +3244,12 @@
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B27" s="17">
-        <v>0</v>
-      </c>
-      <c r="C27" s="17">
-        <v>0</v>
-      </c>
-      <c r="D27" s="17">
-        <v>0</v>
-      </c>
-      <c r="E27" s="17">
-        <v>0</v>
-      </c>
-      <c r="F27" s="17">
-        <v>0</v>
-      </c>
-      <c r="G27" s="17">
-        <v>0</v>
-      </c>
-      <c r="H27" s="17">
-        <v>0</v>
-      </c>
-      <c r="I27" s="17">
-        <v>0</v>
-      </c>
-      <c r="J27" s="17">
-        <v>0</v>
-      </c>
-      <c r="K27" s="17">
-        <v>0</v>
-      </c>
-      <c r="L27" s="22">
-        <f>AVERAGE(B27:K27)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="L28" s="19">
+      <c r="L27" s="28">
         <f>L26+L24</f>
         <v>277.40000000000003</v>
       </c>
-      <c r="M28" t="s">
-        <v>13</v>
+      <c r="M27" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -3308,13 +3262,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:M9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.28515625" customWidth="1"/>
+    <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="0" hidden="1" customWidth="1"/>
     <col min="16" max="16" width="34" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="20.42578125" bestFit="1" customWidth="1"/>
@@ -3322,7 +3276,7 @@
   <sheetData>
     <row r="1" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B1" s="10">
         <v>1</v>
@@ -3566,13 +3520,13 @@
         <v>0</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M7" s="7"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="B8" s="4">
         <v>5</v>

--- a/IBE_MatlabCode/results.xlsx
+++ b/IBE_MatlabCode/results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\DropboxZecao\Dropbox\0doutorado\GitHub\IterativeBranchExchange\IBE_MatlabCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17051BA3-D97D-4711-9433-7460DEBDF9AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D3B2878-9044-4334-9A56-B217E432AC7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sist33" sheetId="13" r:id="rId1"/>
@@ -20,21 +20,11 @@
     <sheet name="sis16" sheetId="18" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="14">
   <si>
     <t>t(s)</t>
   </si>
@@ -53,14 +43,8 @@
     <t>Average</t>
   </si>
   <si>
-    <t>nº FP (EA)</t>
-  </si>
-  <si>
     <t xml:space="preserve">               Runs
 Generations</t>
-  </si>
-  <si>
-    <t>nº PF (EA)</t>
   </si>
   <si>
     <t>BE only (largest cycles 1st)</t>
@@ -72,13 +56,19 @@
     <t>BE only (random cycle order)</t>
   </si>
   <si>
-    <t>no.PF(EA)</t>
+    <t>BE</t>
   </si>
   <si>
-    <t>no.PF(LocalSearch)</t>
+    <t>NFP (BE)</t>
   </si>
   <si>
-    <t>BE</t>
+    <t>NPF (main loop)</t>
+  </si>
+  <si>
+    <t>NFP (total)</t>
+  </si>
+  <si>
+    <t>NPF(BranchExchange)</t>
   </si>
 </sst>
 </file>
@@ -1091,19 +1081,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M12"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="U11" sqref="U11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" customWidth="1"/>
+    <col min="1" max="1" width="20.28515625" bestFit="1" customWidth="1"/>
     <col min="12" max="13" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="27" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="30" x14ac:dyDescent="0.25">
@@ -1356,7 +1346,7 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B9" s="12">
         <v>1</v>
@@ -1434,7 +1424,7 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B11" s="12">
         <v>23</v>
@@ -1488,7 +1478,7 @@
         <v>24</v>
       </c>
       <c r="M12" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1502,7 +1492,7 @@
   <dimension ref="A1:O13"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1515,7 +1505,7 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="27" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="30" x14ac:dyDescent="0.25">
@@ -1848,7 +1838,7 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B11" s="12">
         <v>25</v>
@@ -1902,7 +1892,7 @@
         <v>26</v>
       </c>
       <c r="M12" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
@@ -1929,7 +1919,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M12"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1940,12 +1932,12 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="27" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B2" s="10">
         <v>1</v>
@@ -2195,7 +2187,7 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B9" s="17">
         <v>1</v>
@@ -2273,7 +2265,7 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B11" s="17">
         <v>51</v>
@@ -2326,7 +2318,7 @@
         <v>64.599999999999994</v>
       </c>
       <c r="M12" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -2336,9 +2328,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:M27"/>
+  <dimension ref="A1:M12"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K12" sqref="B12:K12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2349,14 +2343,14 @@
     <col min="13" max="13" width="27.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="27" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B2" s="10">
         <v>0.32036443999999997</v>
@@ -2389,7 +2383,7 @@
         <v>0.32036443999999997</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="23" t="s">
         <v>1</v>
       </c>
@@ -2424,832 +2418,307 @@
         <v>0.32036443999999997</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>1</v>
       </c>
       <c r="B4" s="16">
-        <v>0.28029822999999998</v>
+        <v>0.28265618999999997</v>
       </c>
       <c r="C4" s="16">
-        <v>0.28029822999999998</v>
+        <v>0.28265618999999997</v>
       </c>
       <c r="D4" s="16">
-        <v>0.28029822999999998</v>
+        <v>0.28265618999999997</v>
       </c>
       <c r="E4" s="16">
-        <v>0.28029822999999998</v>
+        <v>0.28250891</v>
       </c>
       <c r="F4" s="16">
-        <v>0.28029822999999998</v>
+        <v>0.28265618999999997</v>
       </c>
       <c r="G4" s="16">
-        <v>0.28029822999999998</v>
+        <v>0.28265618999999997</v>
       </c>
       <c r="H4" s="16">
-        <v>0.28029822999999998</v>
+        <v>0.28265618999999997</v>
       </c>
       <c r="I4" s="16">
-        <v>0.28029822999999998</v>
+        <v>0.28265618999999997</v>
       </c>
       <c r="J4" s="16">
-        <v>0.28029822999999998</v>
+        <v>0.28250891</v>
       </c>
       <c r="K4" s="16">
-        <v>0.28029822999999998</v>
+        <v>0.28265618999999997</v>
       </c>
       <c r="L4" s="18"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>2</v>
       </c>
-      <c r="B5" s="16">
-        <v>0.28029822999999998</v>
-      </c>
-      <c r="C5" s="16">
-        <v>0.28029822999999998</v>
-      </c>
-      <c r="D5" s="16">
-        <v>0.28029822999999998</v>
-      </c>
-      <c r="E5" s="16">
-        <v>0.28029822999999998</v>
-      </c>
-      <c r="F5" s="16">
-        <v>0.28029822999999998</v>
-      </c>
-      <c r="G5" s="16">
-        <v>0.28029822999999998</v>
-      </c>
-      <c r="H5" s="16">
-        <v>0.28029822999999998</v>
-      </c>
-      <c r="I5" s="16">
-        <v>0.28029822999999998</v>
-      </c>
-      <c r="J5" s="16">
-        <v>0.28029822999999998</v>
-      </c>
-      <c r="K5" s="16">
-        <v>0.28029822999999998</v>
+      <c r="B5" s="25">
+        <v>0.28019302000000001</v>
+      </c>
+      <c r="C5" s="25">
+        <v>0.28019302000000001</v>
+      </c>
+      <c r="D5" s="25">
+        <v>0.28019302000000001</v>
+      </c>
+      <c r="E5" s="25">
+        <v>0.28019302000000001</v>
+      </c>
+      <c r="F5" s="25">
+        <v>0.28019302000000001</v>
+      </c>
+      <c r="G5" s="25">
+        <v>0.28019302000000001</v>
+      </c>
+      <c r="H5" s="25">
+        <v>0.28019302000000001</v>
+      </c>
+      <c r="I5" s="25">
+        <v>0.28019302000000001</v>
+      </c>
+      <c r="J5" s="25">
+        <v>0.28019302000000001</v>
+      </c>
+      <c r="K5" s="25">
+        <v>0.28019302000000001</v>
       </c>
       <c r="L5" s="18"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>3</v>
       </c>
       <c r="B6" s="16">
-        <v>0.28029822999999998</v>
+        <v>0</v>
       </c>
       <c r="C6" s="16">
-        <v>0.28029822999999998</v>
+        <v>0</v>
       </c>
       <c r="D6" s="16">
-        <v>0.28022215</v>
+        <v>0</v>
       </c>
       <c r="E6" s="16">
-        <v>0.28022215</v>
+        <v>0</v>
       </c>
       <c r="F6" s="16">
-        <v>0.28022215</v>
+        <v>0</v>
       </c>
       <c r="G6" s="16">
-        <v>0.28022215</v>
+        <v>0</v>
       </c>
       <c r="H6" s="16">
-        <v>0.28029822999999998</v>
+        <v>0</v>
       </c>
       <c r="I6" s="16">
-        <v>0.28029822999999998</v>
+        <v>0</v>
       </c>
       <c r="J6" s="16">
-        <v>0.28029822999999998</v>
+        <v>0</v>
       </c>
       <c r="K6" s="16">
-        <v>0.28022215</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>4</v>
       </c>
       <c r="B7" s="16">
-        <v>0.28029822999999998</v>
+        <v>0</v>
       </c>
       <c r="C7" s="16">
-        <v>0.28029822999999998</v>
+        <v>0</v>
       </c>
       <c r="D7" s="16">
-        <v>0.28022215</v>
+        <v>0</v>
       </c>
       <c r="E7" s="16">
-        <v>0.28022215</v>
+        <v>0</v>
       </c>
       <c r="F7" s="16">
-        <v>0.28022215</v>
+        <v>0</v>
       </c>
       <c r="G7" s="16">
-        <v>0.28022215</v>
+        <v>0</v>
       </c>
       <c r="H7" s="16">
-        <v>0.28029822999999998</v>
+        <v>0</v>
       </c>
       <c r="I7" s="16">
-        <v>0.28029822999999998</v>
+        <v>0</v>
       </c>
       <c r="J7" s="16">
-        <v>0.28029822999999998</v>
+        <v>0</v>
       </c>
       <c r="K7" s="16">
-        <v>0.28022215</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>5</v>
       </c>
-      <c r="B8" s="25">
-        <v>0.28019302000000001</v>
+      <c r="B8" s="16">
+        <v>0</v>
       </c>
       <c r="C8" s="16">
-        <v>0.28029822999999998</v>
+        <v>0</v>
       </c>
       <c r="D8" s="16">
-        <v>0.28022215</v>
+        <v>0</v>
       </c>
       <c r="E8" s="16">
-        <v>0.28022215</v>
+        <v>0</v>
       </c>
       <c r="F8" s="16">
-        <v>0.28022215</v>
+        <v>0</v>
       </c>
       <c r="G8" s="16">
-        <v>0.28022215</v>
+        <v>0</v>
       </c>
       <c r="H8" s="16">
-        <v>0.28029822999999998</v>
+        <v>0</v>
       </c>
       <c r="I8" s="16">
-        <v>0.28029822999999998</v>
-      </c>
-      <c r="J8" s="25">
-        <v>0.28019302000000001</v>
+        <v>0</v>
+      </c>
+      <c r="J8" s="16">
+        <v>0</v>
       </c>
       <c r="K8" s="16">
-        <v>0.28022215</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
-        <v>6</v>
-      </c>
-      <c r="B9" s="16">
-        <v>0</v>
-      </c>
-      <c r="C9" s="25">
-        <v>0.28019302000000001</v>
-      </c>
-      <c r="D9" s="16">
-        <v>0.28022215</v>
-      </c>
-      <c r="E9" s="16">
-        <v>0.28022215</v>
-      </c>
-      <c r="F9" s="16">
-        <v>0.28022215</v>
-      </c>
-      <c r="G9" s="16">
-        <v>0.28022215</v>
-      </c>
-      <c r="H9" s="25">
-        <v>0.28019302000000001</v>
-      </c>
-      <c r="I9" s="25">
-        <v>0.28019302000000001</v>
-      </c>
-      <c r="J9" s="16">
-        <v>0</v>
-      </c>
-      <c r="K9" s="16">
-        <v>0.28022215</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="17">
         <v>7</v>
       </c>
-      <c r="B10" s="16">
-        <v>0</v>
-      </c>
-      <c r="C10" s="16">
-        <v>0</v>
-      </c>
-      <c r="D10" s="16">
-        <v>0.28022215</v>
-      </c>
-      <c r="E10" s="25">
-        <v>0.28019302000000001</v>
-      </c>
-      <c r="F10" s="16">
-        <v>0.28022215</v>
-      </c>
-      <c r="G10" s="16">
-        <v>0.28022215</v>
-      </c>
-      <c r="H10" s="16">
-        <v>0</v>
-      </c>
-      <c r="I10" s="16">
-        <v>0</v>
-      </c>
-      <c r="J10" s="16">
-        <v>0</v>
-      </c>
-      <c r="K10" s="16">
-        <v>0.28022215</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
-        <v>8</v>
-      </c>
-      <c r="B11" s="16">
-        <v>0</v>
-      </c>
-      <c r="C11" s="16">
-        <v>0</v>
-      </c>
-      <c r="D11" s="25">
-        <v>0.28019302000000001</v>
-      </c>
-      <c r="E11" s="16">
-        <v>0</v>
-      </c>
-      <c r="F11" s="16">
-        <v>0.28022215</v>
-      </c>
-      <c r="G11" s="16">
-        <v>0.28022215</v>
-      </c>
-      <c r="H11" s="16">
-        <v>0</v>
-      </c>
-      <c r="I11" s="16">
-        <v>0</v>
-      </c>
-      <c r="J11" s="16">
-        <v>0</v>
-      </c>
-      <c r="K11" s="16">
-        <v>0.28022215</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
-        <v>9</v>
-      </c>
-      <c r="B12" s="16">
-        <v>0</v>
-      </c>
-      <c r="C12" s="16">
-        <v>0</v>
-      </c>
-      <c r="D12" s="16">
-        <v>0</v>
-      </c>
-      <c r="E12" s="16">
-        <v>0</v>
-      </c>
-      <c r="F12" s="16">
-        <v>0.28022215</v>
-      </c>
-      <c r="G12" s="16">
-        <v>0.28022215</v>
-      </c>
-      <c r="H12" s="16">
-        <v>0</v>
-      </c>
-      <c r="I12" s="16">
-        <v>0</v>
-      </c>
-      <c r="J12" s="16">
-        <v>0</v>
-      </c>
-      <c r="K12" s="25">
-        <v>0.28019302000000001</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="3">
-        <v>10</v>
-      </c>
-      <c r="B13" s="16">
-        <v>0</v>
-      </c>
-      <c r="C13" s="16">
-        <v>0</v>
-      </c>
-      <c r="D13" s="16">
-        <v>0</v>
-      </c>
-      <c r="E13" s="16">
-        <v>0</v>
-      </c>
-      <c r="F13" s="16">
-        <v>0.28022215</v>
-      </c>
-      <c r="G13" s="16">
-        <v>0.28022215</v>
-      </c>
-      <c r="H13" s="16">
-        <v>0</v>
-      </c>
-      <c r="I13" s="16">
-        <v>0</v>
-      </c>
-      <c r="J13" s="16">
-        <v>0</v>
-      </c>
-      <c r="K13" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="3">
-        <v>11</v>
-      </c>
-      <c r="B14" s="16">
-        <v>0</v>
-      </c>
-      <c r="C14" s="16">
-        <v>0</v>
-      </c>
-      <c r="D14" s="16">
-        <v>0</v>
-      </c>
-      <c r="E14" s="16">
-        <v>0</v>
-      </c>
-      <c r="F14" s="25">
-        <v>0.28019302000000001</v>
-      </c>
-      <c r="G14" s="25">
-        <v>0.28019302000000001</v>
-      </c>
-      <c r="H14" s="16">
-        <v>0</v>
-      </c>
-      <c r="I14" s="16">
-        <v>0</v>
-      </c>
-      <c r="J14" s="16">
-        <v>0</v>
-      </c>
-      <c r="K14" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="3">
-        <v>12</v>
-      </c>
-      <c r="B15" s="16">
-        <v>0</v>
-      </c>
-      <c r="C15" s="16">
-        <v>0</v>
-      </c>
-      <c r="D15" s="16">
-        <v>0</v>
-      </c>
-      <c r="E15" s="16">
-        <v>0</v>
-      </c>
-      <c r="F15" s="16">
-        <v>0</v>
-      </c>
-      <c r="G15" s="16">
-        <v>0</v>
-      </c>
-      <c r="H15" s="16">
-        <v>0</v>
-      </c>
-      <c r="I15" s="16">
-        <v>0</v>
-      </c>
-      <c r="J15" s="16">
-        <v>0</v>
-      </c>
-      <c r="K15" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="3">
+      <c r="C9" s="17">
+        <v>7</v>
+      </c>
+      <c r="D9" s="17">
+        <v>7</v>
+      </c>
+      <c r="E9" s="17">
+        <v>7</v>
+      </c>
+      <c r="F9" s="17">
+        <v>7</v>
+      </c>
+      <c r="G9" s="17">
+        <v>7</v>
+      </c>
+      <c r="H9" s="17">
+        <v>7</v>
+      </c>
+      <c r="I9" s="17">
+        <v>7</v>
+      </c>
+      <c r="J9" s="17">
+        <v>7</v>
+      </c>
+      <c r="K9" s="17">
+        <v>7</v>
+      </c>
+      <c r="L9" s="22">
+        <f>AVERAGE(B9:K9)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="4">
+        <v>6.1311413000000003</v>
+      </c>
+      <c r="C10" s="4">
+        <v>2.8706833</v>
+      </c>
+      <c r="D10" s="4">
+        <v>2.7198052000000001</v>
+      </c>
+      <c r="E10" s="4">
+        <v>2.4381811999999998</v>
+      </c>
+      <c r="F10" s="4">
+        <v>2.5675585999999999</v>
+      </c>
+      <c r="G10" s="4">
+        <v>2.5953883000000002</v>
+      </c>
+      <c r="H10" s="4">
+        <v>2.6372119000000001</v>
+      </c>
+      <c r="I10" s="4">
+        <v>2.590014</v>
+      </c>
+      <c r="J10" s="4">
+        <v>2.4026581</v>
+      </c>
+      <c r="K10" s="4">
+        <v>2.5610740000000001</v>
+      </c>
+      <c r="L10" s="22">
+        <f>AVERAGE(B10:K10)</f>
+        <v>2.9513715900000004</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="16">
-        <v>0</v>
-      </c>
-      <c r="C16" s="16">
-        <v>0</v>
-      </c>
-      <c r="D16" s="16">
-        <v>0</v>
-      </c>
-      <c r="E16" s="16">
-        <v>0</v>
-      </c>
-      <c r="F16" s="16">
-        <v>0</v>
-      </c>
-      <c r="G16" s="16">
-        <v>0</v>
-      </c>
-      <c r="H16" s="16">
-        <v>0</v>
-      </c>
-      <c r="I16" s="16">
-        <v>0</v>
-      </c>
-      <c r="J16" s="16">
-        <v>0</v>
-      </c>
-      <c r="K16" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="3">
-        <v>14</v>
-      </c>
-      <c r="B17" s="16">
-        <v>0</v>
-      </c>
-      <c r="C17" s="16">
-        <v>0</v>
-      </c>
-      <c r="D17" s="16">
-        <v>0</v>
-      </c>
-      <c r="E17" s="16">
-        <v>0</v>
-      </c>
-      <c r="F17" s="16">
-        <v>0</v>
-      </c>
-      <c r="G17" s="16">
-        <v>0</v>
-      </c>
-      <c r="H17" s="16">
-        <v>0</v>
-      </c>
-      <c r="I17" s="16">
-        <v>0</v>
-      </c>
-      <c r="J17" s="16">
-        <v>0</v>
-      </c>
-      <c r="K17" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="3">
-        <v>15</v>
-      </c>
-      <c r="B18" s="16">
-        <v>0</v>
-      </c>
-      <c r="C18" s="16">
-        <v>0</v>
-      </c>
-      <c r="D18" s="16">
-        <v>0</v>
-      </c>
-      <c r="E18" s="16">
-        <v>0</v>
-      </c>
-      <c r="F18" s="16">
-        <v>0</v>
-      </c>
-      <c r="G18" s="16">
-        <v>0</v>
-      </c>
-      <c r="H18" s="16">
-        <v>0</v>
-      </c>
-      <c r="I18" s="16">
-        <v>0</v>
-      </c>
-      <c r="J18" s="16">
-        <v>0</v>
-      </c>
-      <c r="K18" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="3">
-        <v>16</v>
-      </c>
-      <c r="B19" s="16">
-        <v>0</v>
-      </c>
-      <c r="C19" s="16">
-        <v>0</v>
-      </c>
-      <c r="D19" s="16">
-        <v>0</v>
-      </c>
-      <c r="E19" s="16">
-        <v>0</v>
-      </c>
-      <c r="F19" s="16">
-        <v>0</v>
-      </c>
-      <c r="G19" s="16">
-        <v>0</v>
-      </c>
-      <c r="H19" s="16">
-        <v>0</v>
-      </c>
-      <c r="I19" s="16">
-        <v>0</v>
-      </c>
-      <c r="J19" s="16">
-        <v>0</v>
-      </c>
-      <c r="K19" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="3">
-        <v>17</v>
-      </c>
-      <c r="B20" s="16">
-        <v>0</v>
-      </c>
-      <c r="C20" s="16">
-        <v>0</v>
-      </c>
-      <c r="D20" s="16">
-        <v>0</v>
-      </c>
-      <c r="E20" s="16">
-        <v>0</v>
-      </c>
-      <c r="F20" s="16">
-        <v>0</v>
-      </c>
-      <c r="G20" s="16">
-        <v>0</v>
-      </c>
-      <c r="H20" s="16">
-        <v>0</v>
-      </c>
-      <c r="I20" s="16">
-        <v>0</v>
-      </c>
-      <c r="J20" s="16">
-        <v>0</v>
-      </c>
-      <c r="K20" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="3">
-        <v>18</v>
-      </c>
-      <c r="B21" s="16">
-        <v>0</v>
-      </c>
-      <c r="C21" s="16">
-        <v>0</v>
-      </c>
-      <c r="D21" s="16">
-        <v>0</v>
-      </c>
-      <c r="E21" s="16">
-        <v>0</v>
-      </c>
-      <c r="F21" s="16">
-        <v>0</v>
-      </c>
-      <c r="G21" s="16">
-        <v>0</v>
-      </c>
-      <c r="H21" s="16">
-        <v>0</v>
-      </c>
-      <c r="I21" s="16">
-        <v>0</v>
-      </c>
-      <c r="J21" s="16">
-        <v>0</v>
-      </c>
-      <c r="K21" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="3">
-        <v>19</v>
-      </c>
-      <c r="B22" s="16">
-        <v>0</v>
-      </c>
-      <c r="C22" s="16">
-        <v>0</v>
-      </c>
-      <c r="D22" s="16">
-        <v>0</v>
-      </c>
-      <c r="E22" s="16">
-        <v>0</v>
-      </c>
-      <c r="F22" s="16">
-        <v>0</v>
-      </c>
-      <c r="G22" s="16">
-        <v>0</v>
-      </c>
-      <c r="H22" s="16">
-        <v>0</v>
-      </c>
-      <c r="I22" s="16">
-        <v>0</v>
-      </c>
-      <c r="J22" s="16">
-        <v>0</v>
-      </c>
-      <c r="K22" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="3">
-        <v>20</v>
-      </c>
-      <c r="B23" s="16">
-        <v>0</v>
-      </c>
-      <c r="C23" s="16">
-        <v>0</v>
-      </c>
-      <c r="D23" s="16">
-        <v>0</v>
-      </c>
-      <c r="E23" s="16">
-        <v>0</v>
-      </c>
-      <c r="F23" s="16">
-        <v>0</v>
-      </c>
-      <c r="G23" s="16">
-        <v>0</v>
-      </c>
-      <c r="H23" s="16">
-        <v>0</v>
-      </c>
-      <c r="I23" s="16">
-        <v>0</v>
-      </c>
-      <c r="J23" s="16">
-        <v>0</v>
-      </c>
-      <c r="K23" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B24" s="17">
-        <v>6</v>
-      </c>
-      <c r="C24" s="17">
-        <v>6</v>
-      </c>
-      <c r="D24" s="17">
-        <v>6</v>
-      </c>
-      <c r="E24" s="17">
-        <v>5</v>
-      </c>
-      <c r="F24" s="17">
-        <v>6</v>
-      </c>
-      <c r="G24" s="17">
+      <c r="B11" s="17">
+        <v>144</v>
+      </c>
+      <c r="C11" s="17">
+        <v>140</v>
+      </c>
+      <c r="D11" s="17">
+        <v>141</v>
+      </c>
+      <c r="E11" s="17">
+        <v>138</v>
+      </c>
+      <c r="F11" s="17">
+        <v>137</v>
+      </c>
+      <c r="G11" s="17">
+        <v>137</v>
+      </c>
+      <c r="H11" s="17">
+        <v>137</v>
+      </c>
+      <c r="I11" s="17">
+        <v>138</v>
+      </c>
+      <c r="J11" s="17">
+        <v>138</v>
+      </c>
+      <c r="K11" s="17">
+        <v>141</v>
+      </c>
+      <c r="L11" s="22">
+        <f>AVERAGE(B11:K11)</f>
+        <v>139.1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L12" s="28">
+        <f>L11+L9</f>
+        <v>146.1</v>
+      </c>
+      <c r="M12" t="s">
         <v>7</v>
-      </c>
-      <c r="H24" s="17">
-        <v>5</v>
-      </c>
-      <c r="I24" s="17">
-        <v>5</v>
-      </c>
-      <c r="J24" s="17">
-        <v>5</v>
-      </c>
-      <c r="K24" s="17">
-        <v>5</v>
-      </c>
-      <c r="L24" s="22">
-        <f>AVERAGE(B24:K24)</f>
-        <v>5.6</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B25" s="4">
-        <v>2.3082153999999999</v>
-      </c>
-      <c r="C25" s="4">
-        <v>2.1337378</v>
-      </c>
-      <c r="D25" s="4">
-        <v>2.6082728999999998</v>
-      </c>
-      <c r="E25" s="4">
-        <v>2.5550614999999999</v>
-      </c>
-      <c r="F25" s="4">
-        <v>3.4675498</v>
-      </c>
-      <c r="G25" s="4">
-        <v>3.4945547000000001</v>
-      </c>
-      <c r="H25" s="4">
-        <v>2.2491848000000001</v>
-      </c>
-      <c r="I25" s="4">
-        <v>2.0443224</v>
-      </c>
-      <c r="J25" s="4">
-        <v>1.8744338</v>
-      </c>
-      <c r="K25" s="4">
-        <v>3.0538739000000001</v>
-      </c>
-      <c r="L25" s="22">
-        <f>AVERAGE(B25:K25)</f>
-        <v>2.5789206999999998</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B26" s="17">
-        <v>186</v>
-      </c>
-      <c r="C26" s="17">
-        <v>229</v>
-      </c>
-      <c r="D26" s="17">
-        <v>274</v>
-      </c>
-      <c r="E26" s="17">
-        <v>286</v>
-      </c>
-      <c r="F26" s="17">
-        <v>361</v>
-      </c>
-      <c r="G26" s="17">
-        <v>371</v>
-      </c>
-      <c r="H26" s="17">
-        <v>253</v>
-      </c>
-      <c r="I26" s="17">
-        <v>218</v>
-      </c>
-      <c r="J26" s="17">
-        <v>200</v>
-      </c>
-      <c r="K26" s="17">
-        <v>340</v>
-      </c>
-      <c r="L26" s="22">
-        <f>AVERAGE(B26:K26)</f>
-        <v>271.8</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="L27" s="28">
-        <f>L26+L24</f>
-        <v>277.40000000000003</v>
-      </c>
-      <c r="M27" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -3260,10 +2729,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:M9"/>
+  <dimension ref="A1:M11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3526,36 +2995,36 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="4">
+        <v>11</v>
+      </c>
+      <c r="B8" s="17">
         <v>5</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="17">
         <v>5</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="17">
         <v>5</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="17">
         <v>5</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="17">
         <v>5</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G8" s="17">
         <v>5</v>
       </c>
-      <c r="H8" s="4">
+      <c r="H8" s="17">
         <v>5</v>
       </c>
-      <c r="I8" s="4">
+      <c r="I8" s="17">
         <v>5</v>
       </c>
-      <c r="J8" s="4">
+      <c r="J8" s="17">
         <v>5</v>
       </c>
-      <c r="K8" s="4">
+      <c r="K8" s="17">
         <v>5</v>
       </c>
       <c r="L8" s="4">
@@ -3603,6 +3072,54 @@
         <v>0.155180454</v>
       </c>
       <c r="M9" s="7"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="12">
+        <v>8</v>
+      </c>
+      <c r="C10" s="12">
+        <v>10</v>
+      </c>
+      <c r="D10" s="12">
+        <v>10</v>
+      </c>
+      <c r="E10" s="12">
+        <v>8</v>
+      </c>
+      <c r="F10" s="12">
+        <v>8</v>
+      </c>
+      <c r="G10" s="12">
+        <v>10</v>
+      </c>
+      <c r="H10" s="12">
+        <v>10</v>
+      </c>
+      <c r="I10" s="12">
+        <v>8</v>
+      </c>
+      <c r="J10" s="12">
+        <v>8</v>
+      </c>
+      <c r="K10" s="12">
+        <v>10</v>
+      </c>
+      <c r="L10" s="4">
+        <f>AVERAGE(B10:K10)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="L11" s="7">
+        <f>L8+L10</f>
+        <v>14</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
